--- a/ReadExcelDataDemon/ReadExcelDataDemon/Classes/ReadExcelClass/source/abc.xlsx
+++ b/ReadExcelDataDemon/ReadExcelDataDemon/Classes/ReadExcelClass/source/abc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="80" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="3900" yWindow="2080" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -48,6 +48,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -71,13 +89,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,7 +448,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -426,8 +464,8 @@
         <v>32</v>
       </c>
       <c r="D1" t="str">
-        <f>"insert into table(UserName,UserSex,UserAge) values"&amp;"("&amp;A1&amp;","&amp;B1&amp;","&amp;C1&amp;");"</f>
-        <v>insert into table(UserName,UserSex,UserAge) values(小李,1,32);</v>
+        <f>"insert into ExcelTable (UserName,UserSex,UserAge) values "&amp;"('"&amp;A1&amp;"','"&amp;B1&amp;"','"&amp;C1&amp;"');"</f>
+        <v>insert into ExcelTable (UserName,UserSex,UserAge) values ('小李','1','32');</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -441,8 +479,8 @@
         <v>26</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D3" si="0">"insert into table(UserName,UserSex,UserAge) values"&amp;"("&amp;A2&amp;","&amp;B2&amp;","&amp;C2&amp;");"</f>
-        <v>insert into table(UserName,UserSex,UserAge) values(小王,1,26);</v>
+        <f t="shared" ref="D2:D3" si="0">"insert into ExcelTable (UserName,UserSex,UserAge) values "&amp;"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"');"</f>
+        <v>insert into ExcelTable (UserName,UserSex,UserAge) values ('小王','1','26');</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -457,12 +495,13 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into table(UserName,UserSex,UserAge) values(小强,0,28);</v>
+        <v>insert into ExcelTable (UserName,UserSex,UserAge) values ('小强','0','28');</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
